--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sahajayoga\SY Stotra Sangraha WebApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sahajayoga\Projects\SY Stotra Sangraha WebApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DA8919-A0D0-4C39-B0C5-2F3ADB1DC2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149372FB-DF77-401E-A6E2-6E9BE24BD76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SA" sheetId="4" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>DDAV</t>
   </si>
   <si>
-    <t>GYMA</t>
-  </si>
-  <si>
     <t>Gayatri Mantra</t>
   </si>
   <si>
@@ -484,6 +481,9 @@
   </si>
   <si>
     <t>वक्रतुंड महाकाय</t>
+  </si>
+  <si>
+    <t>GAMA</t>
   </si>
 </sst>
 </file>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA45175-EA5C-40EE-A095-9E63EE3B555D}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -833,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -847,7 +847,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -862,7 +862,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -874,10 +874,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -892,7 +892,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -901,13 +901,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -916,13 +916,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -931,13 +931,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -946,13 +946,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -961,13 +961,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -976,13 +976,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -991,13 +991,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1006,13 +1006,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1021,13 +1021,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1036,13 +1036,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1051,13 +1051,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1066,13 +1066,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1081,13 +1081,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1111,13 +1111,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1126,13 +1126,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1141,13 +1141,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1156,13 +1156,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1171,13 +1171,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1186,13 +1186,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1201,13 +1201,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1216,13 +1216,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1231,13 +1231,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1246,13 +1246,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1261,13 +1261,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1276,13 +1276,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1291,13 +1291,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1306,13 +1306,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1321,13 +1321,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1336,13 +1336,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1351,13 +1351,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1366,13 +1366,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1381,13 +1381,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1396,13 +1396,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1411,13 +1411,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1426,13 +1426,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1441,13 +1441,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1456,13 +1456,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1495,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1503,13 +1503,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1518,13 +1518,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1533,13 +1533,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1548,13 +1548,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1566,7 +1566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F38401-C3BC-42ED-B8F9-C248FBBA923A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1587,7 +1587,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1595,13 +1595,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>97</v>
-      </c>
-      <c r="D2" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1638,10 +1638,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1650,10 +1650,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sahajayoga\Projects\SY Stotra Sangraha WebApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149372FB-DF77-401E-A6E2-6E9BE24BD76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD17C08-EF69-48F3-8F8C-219A36088A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="152">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -210,12 +210,6 @@
     <t>SAST</t>
   </si>
   <si>
-    <t>SADP</t>
-  </si>
-  <si>
-    <t>SAPS</t>
-  </si>
-  <si>
     <t>Name (Original)</t>
   </si>
   <si>
@@ -484,6 +478,21 @@
   </si>
   <si>
     <t>GAMA</t>
+  </si>
+  <si>
+    <t>SAPR</t>
+  </si>
+  <si>
+    <t>SAPW</t>
+  </si>
+  <si>
+    <t>SGAU</t>
+  </si>
+  <si>
+    <t>Shri Ganesha Atharvashirsha (Complete)</t>
+  </si>
+  <si>
+    <t>श्री गणेश अथर्वशीर्ष (संपूर्ण)</t>
   </si>
 </sst>
 </file>
@@ -810,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA45175-EA5C-40EE-A095-9E63EE3B555D}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -833,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -847,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -862,12 +871,12 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" ref="A4:A43" si="0">A3+1</f>
+        <f t="shared" ref="A4:A44" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -877,7 +886,7 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -892,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -901,13 +910,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -922,7 +931,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -937,7 +946,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -952,7 +961,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -967,7 +976,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -982,7 +991,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -997,7 +1006,7 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -1006,13 +1015,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -1021,13 +1030,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -1036,13 +1045,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -1057,7 +1066,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1066,13 +1075,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1081,13 +1090,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1096,13 +1105,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1111,13 +1120,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1126,13 +1135,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -1141,13 +1150,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1156,13 +1165,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1171,13 +1180,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1186,13 +1195,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1201,13 +1210,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1216,13 +1225,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -1234,10 +1243,10 @@
         <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1246,13 +1255,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1261,13 +1270,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1276,13 +1285,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1291,13 +1300,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1306,13 +1315,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1321,13 +1330,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1336,13 +1345,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -1351,13 +1360,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1366,13 +1375,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1381,13 +1390,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1396,13 +1405,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1411,13 +1420,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1426,13 +1435,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1441,13 +1450,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
@@ -1456,13 +1465,28 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
         <v>32</v>
       </c>
-      <c r="D43" t="s">
-        <v>147</v>
+      <c r="D44" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1495,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1503,13 +1527,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1518,13 +1542,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1533,13 +1557,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -1548,13 +1572,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1587,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1595,13 +1619,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
         <v>95</v>
-      </c>
-      <c r="C2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1638,10 +1662,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1650,10 +1674,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
